--- a/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05997924219799552</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1143280029089026</v>
+        <v>0.1143280029089027</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07142152140204801</v>
@@ -685,7 +685,7 @@
         <v>0.1066401406001231</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.178399462317595</v>
+        <v>0.1783994623175949</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06351576646433499</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04101244023177336</v>
+        <v>0.04066022826579271</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05514462996074342</v>
+        <v>0.05576806159025011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04443131863985701</v>
+        <v>0.04533943426972945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0911801886653434</v>
+        <v>0.09250658991939227</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05828060348558825</v>
+        <v>0.0575331440227986</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1331201957307553</v>
+        <v>0.1289771576540845</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0881236235550297</v>
+        <v>0.08800920544936867</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1578035111921743</v>
+        <v>0.1585850809311282</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05411724013607204</v>
+        <v>0.05451696298840553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.104347042742744</v>
+        <v>0.1033667067532697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07288396227730891</v>
+        <v>0.07283873456623169</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1377956903290954</v>
+        <v>0.1376992206130119</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06969891621359982</v>
+        <v>0.06908787786096278</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09040622824690372</v>
+        <v>0.09250865936485475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07861225722345888</v>
+        <v>0.07650101440123114</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1409591903451746</v>
+        <v>0.1420965014926011</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08794115133840949</v>
+        <v>0.08706880258909903</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1735867119582044</v>
+        <v>0.1705015083620146</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1292321416855651</v>
+        <v>0.1287647651410483</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1994179348855505</v>
+        <v>0.2000914147133279</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07365647728404326</v>
+        <v>0.07403176849752777</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1334667844000641</v>
+        <v>0.1323947197871895</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09989720985214032</v>
+        <v>0.1008297887587073</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.168192860425458</v>
+        <v>0.1696525678330664</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01557254112835629</v>
+        <v>0.0159375662689811</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03073054432974503</v>
+        <v>0.03006677091375598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02151692066313311</v>
+        <v>0.02154026582465154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03316103559356713</v>
+        <v>0.03202343477423773</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02441476519247735</v>
+        <v>0.02454649713796352</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05209894163005494</v>
+        <v>0.05208547498512605</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02745474904213244</v>
+        <v>0.02747351031635915</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04279722011542889</v>
+        <v>0.04171873419946964</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02178055178636414</v>
+        <v>0.02209223413813081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04264478374298238</v>
+        <v>0.04373325822219885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02578030744277545</v>
+        <v>0.02626792137358623</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03915333473985083</v>
+        <v>0.03891251953143293</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03073780099853306</v>
+        <v>0.03082972766615014</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0487787754628191</v>
+        <v>0.049189298304628</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0371245994320747</v>
+        <v>0.03713707378470541</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05095923884604302</v>
+        <v>0.05019969904385917</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04242401861525266</v>
+        <v>0.04301384650415754</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07530305219515211</v>
+        <v>0.07595028494007709</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04475440401218513</v>
+        <v>0.04397730118877739</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05885208584553922</v>
+        <v>0.05773166707268296</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03407439464429166</v>
+        <v>0.03303533158974364</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0574310893769851</v>
+        <v>0.05857177098601973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03773970592783706</v>
+        <v>0.03756188754672272</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05176122297286652</v>
+        <v>0.05210251610009255</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0240799341559406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03779529214353179</v>
+        <v>0.03779529214353178</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03858005247932658</v>
@@ -969,7 +969,7 @@
         <v>0.02924790007662219</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03432593145344197</v>
+        <v>0.03432593145344196</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008643116066732853</v>
+        <v>0.009916512447148808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01517445840232013</v>
+        <v>0.01530265780748917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01271435684255208</v>
+        <v>0.01387656397311137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02561949884560094</v>
+        <v>0.02550056811292986</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02339569353529758</v>
+        <v>0.02327724047824658</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02005516417371823</v>
+        <v>0.01948735302887982</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02201021829176605</v>
+        <v>0.02137125595835699</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02226759761691125</v>
+        <v>0.02185089850867607</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02014686869374305</v>
+        <v>0.01930815683833225</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02126235752011277</v>
+        <v>0.02066831591813618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0193822012816808</v>
+        <v>0.02009684584925239</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0264293827844624</v>
+        <v>0.02609098117085467</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0343877834441008</v>
+        <v>0.03420967736624468</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04750561295872226</v>
+        <v>0.04831426471085044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04076018929737923</v>
+        <v>0.04119320720347036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05491820741569728</v>
+        <v>0.05773172120114055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0607409481234841</v>
+        <v>0.05955162336491505</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05830453256129007</v>
+        <v>0.05800341232302225</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0561381568672662</v>
+        <v>0.05678249457189206</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04229009964178353</v>
+        <v>0.04450437721737242</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03974231656782827</v>
+        <v>0.04048559530999122</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04594425361062327</v>
+        <v>0.04485675906952458</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04195076855893941</v>
+        <v>0.04122428545546788</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04515355587230658</v>
+        <v>0.04382369435435542</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03482184022985717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05218890780761401</v>
+        <v>0.05218890780761402</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04850047052032394</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03926512568699257</v>
+        <v>0.03972478887100894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02828435920183419</v>
+        <v>0.02863076097467163</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04502505306080998</v>
+        <v>0.04517416198451543</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08258342516385825</v>
+        <v>0.08260297362596526</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04770517853488219</v>
+        <v>0.04726672239598229</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06797386214563936</v>
+        <v>0.06701254315753805</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06349925954303468</v>
+        <v>0.06331149503383039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04006423508289906</v>
+        <v>0.04016816991627234</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05882369449324761</v>
+        <v>0.0584471578380849</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05531971052598519</v>
+        <v>0.05504116750903448</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04106500271172032</v>
+        <v>0.04183328080816066</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06023429447292248</v>
+        <v>0.06129038992857087</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1025803583782802</v>
+        <v>0.1032048983390771</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06435280501559251</v>
+        <v>0.06283878200306547</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08255472694809381</v>
+        <v>0.08150854982131664</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07589968518260212</v>
+        <v>0.07637746075658546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05074517410178517</v>
+        <v>0.05051371850529016</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06871293397808328</v>
+        <v>0.06906413155656005</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42313</v>
+        <v>41950</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53693</v>
+        <v>54300</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33517</v>
+        <v>34202</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52660</v>
+        <v>53426</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>76646</v>
+        <v>75663</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>177942</v>
+        <v>172404</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>87467</v>
+        <v>87353</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>129198</v>
+        <v>129837</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>127004</v>
+        <v>127942</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>241081</v>
+        <v>238816</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>127320</v>
+        <v>127241</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>192399</v>
+        <v>192264</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>71910</v>
+        <v>71280</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88027</v>
+        <v>90074</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59301</v>
+        <v>57708</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81410</v>
+        <v>82066</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>115653</v>
+        <v>114505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>232033</v>
+        <v>227909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>128269</v>
+        <v>127805</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>163268</v>
+        <v>163820</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>172860</v>
+        <v>173740</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>308358</v>
+        <v>305882</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>174510</v>
+        <v>176139</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>234842</v>
+        <v>236880</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>26371</v>
+        <v>26989</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60293</v>
+        <v>58990</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>44656</v>
+        <v>44705</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>73901</v>
+        <v>71366</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38763</v>
+        <v>38972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>91478</v>
+        <v>91454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>54559</v>
+        <v>54597</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>92862</v>
+        <v>90521</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>71464</v>
+        <v>72487</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>158546</v>
+        <v>162593</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>104737</v>
+        <v>106718</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>172210</v>
+        <v>171151</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52052</v>
+        <v>52207</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>95703</v>
+        <v>96508</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77049</v>
+        <v>77075</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113565</v>
+        <v>111873</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>67355</v>
+        <v>68292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>132221</v>
+        <v>133357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>88938</v>
+        <v>87394</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>127697</v>
+        <v>125266</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>111801</v>
+        <v>108392</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>213519</v>
+        <v>217760</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>153324</v>
+        <v>152601</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>227664</v>
+        <v>229165</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4766</v>
+        <v>5468</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7302</v>
+        <v>7363</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6953</v>
+        <v>7589</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18231</v>
+        <v>18146</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11146</v>
+        <v>11090</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9198</v>
+        <v>8938</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12046</v>
+        <v>11696</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16364</v>
+        <v>16058</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20707</v>
+        <v>19845</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19983</v>
+        <v>19424</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21207</v>
+        <v>21989</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38229</v>
+        <v>37740</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18962</v>
+        <v>18863</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22859</v>
+        <v>23248</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22291</v>
+        <v>22528</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39079</v>
+        <v>41081</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28938</v>
+        <v>28371</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26740</v>
+        <v>26602</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30723</v>
+        <v>31075</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31078</v>
+        <v>32705</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40848</v>
+        <v>41612</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43179</v>
+        <v>42157</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45901</v>
+        <v>45106</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>65313</v>
+        <v>63389</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>134163</v>
+        <v>135733</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>95506</v>
+        <v>96676</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>158384</v>
+        <v>158908</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>293268</v>
+        <v>293338</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>168259</v>
+        <v>166713</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>253094</v>
+        <v>249515</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>442464</v>
+        <v>441156</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>276592</v>
+        <v>277309</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>425947</v>
+        <v>423221</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189019</v>
+        <v>188067</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>138662</v>
+        <v>141256</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>211885</v>
+        <v>215600</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>364281</v>
+        <v>366499</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>226976</v>
+        <v>221636</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>307385</v>
+        <v>303489</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>528870</v>
+        <v>532199</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>350330</v>
+        <v>348732</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>497556</v>
+        <v>500099</v>
       </c>
     </row>
     <row r="20">
